--- a/docs/employees.xlsx
+++ b/docs/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user 1\Desktop\כרמית\Carmit-Site\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E6EB67-880A-4684-8698-7DB509684941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1322EC-008A-473F-B3BD-66224AFAE615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="3315" windowWidth="16410" windowHeight="11295" xr2:uid="{40705B86-F008-498E-AB36-2530E06A15C8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="רשימת עובדים" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'רשימת עובדים'!$A$5:$I$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'רשימת עובדים'!$A$5:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>מספר עובד</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>רונית</t>
+  </si>
+  <si>
+    <t>בדיקה ראשונה</t>
+  </si>
+  <si>
+    <t>בדיקה שנייה</t>
+  </si>
+  <si>
+    <t>בדיקה שלישית</t>
+  </si>
+  <si>
+    <t>בדיקה רביעית</t>
   </si>
 </sst>
 </file>
@@ -740,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55F160-160A-41F3-B4BF-87F3F541C63F}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1319,14 +1331,30 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15599</v>
+      </c>
+      <c r="D19" s="2">
+        <v>45797</v>
+      </c>
+      <c r="E19" s="2">
+        <v>33065</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1340,14 +1368,30 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1">
+        <v>15599</v>
+      </c>
+      <c r="D20" s="2">
+        <v>45797</v>
+      </c>
+      <c r="E20" s="2">
+        <v>33066</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1361,14 +1405,30 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15599</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45797</v>
+      </c>
+      <c r="E21" s="2">
+        <v>33067</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1382,14 +1442,30 @@
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15599</v>
+      </c>
+      <c r="D22" s="2">
+        <v>45797</v>
+      </c>
+      <c r="E22" s="2">
+        <v>33068</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
